--- a/data/evaluation-methods-summary.xlsx
+++ b/data/evaluation-methods-summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\OneDrive\Documents\Lore-evaluation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8D722C-C63C-4CFD-BCF0-2E3AC7EAF17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD900DA-44EE-4491-8F75-BEEDC63D0E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3C034BD5-1351-429B-99B7-34E9267FA088}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -54,9 +53,6 @@
     <t>Evaluation</t>
   </si>
   <si>
-    <t>Model Parameter Randomization Check</t>
-  </si>
-  <si>
     <t>1.	Take the trained model f and generate an explanation e for a prediction.
 2.	Then, randomize the model parameters (i.e., reinitialize the weights randomly).
 3.	Generate a new explanation e’ for the same input.
@@ -75,18 +71,12 @@
     <t xml:space="preserve">The confidence score drops by 32% which is significant, means that the features used in the explaination are important  </t>
   </si>
   <si>
-    <t>Deletion Check</t>
-  </si>
-  <si>
     <t>1.  What it does: Remove (mask) the features that the explanation says are most important.
 o	Goal: See if the model’s prediction confidence drops or changes.
 o	If it does, then the explanation likely contained key info.
 o	If it doesn’t, then the explanation might not be valid or complete.</t>
   </si>
   <si>
-    <t xml:space="preserve">Preservation Check </t>
-  </si>
-  <si>
     <t>o	What it does: Keep only the features the explanation deems important, and mask the rest.
 o	Goal: Check if the model can still make the same prediction.
 o	If it can, then the explanation has captured the core of the model’s reasoning.</t>
@@ -136,10 +126,19 @@
     <t>Continuity</t>
   </si>
   <si>
-    <t>Stability for Slight Variations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do small changes in the input lead to somilar explanations ? Add Noise to an instance , compare old explanation with perturbed instance explanation   </t>
+    <t>Model parameter randomization check</t>
+  </si>
+  <si>
+    <t>Deletion check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preservation check </t>
+  </si>
+  <si>
+    <t>Stability for slight variations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do small changes in the input lead to similar explanations ? Add Noise to an instance , compare old explanation with perturbed instance explanation   </t>
   </si>
 </sst>
 </file>
@@ -630,8 +629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5C11AF-9AC2-4A94-9B64-EDADF89ECEE8}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -666,21 +665,21 @@
     </row>
     <row r="3" spans="1:4" s="8" customFormat="1" ht="122" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
@@ -688,33 +687,33 @@
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1" ht="128" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -722,17 +721,17 @@
     </row>
     <row r="8" spans="1:4" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -740,33 +739,33 @@
     </row>
     <row r="10" spans="1:4" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
